--- a/neutralization_assays/data/neut_plate_reader_data/VIDD2_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/VIDD2_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39680" yWindow="5080" windowWidth="26840" windowHeight="11560" activeTab="4"/>
+    <workbookView xWindow="31220" yWindow="460" windowWidth="26880" windowHeight="16840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -586,12 +586,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -671,6 +665,12 @@
   </si>
   <si>
     <t>4/25/2019 10:45:35 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1301,67 +1303,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>16576</v>
@@ -1402,7 +1401,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31485</v>
@@ -1443,7 +1442,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>29030</v>
@@ -1484,7 +1483,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28724</v>
@@ -1525,7 +1524,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>29397</v>
@@ -1566,7 +1565,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>32444</v>
@@ -1605,12 +1604,17 @@
         <v>32454</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1623,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1830,67 +1834,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>12057</v>
@@ -1931,7 +1932,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>30127</v>
@@ -1972,7 +1973,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>27617</v>
@@ -2013,7 +2014,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>29655</v>
@@ -2054,7 +2055,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26050</v>
@@ -2095,7 +2096,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>26146</v>
@@ -2134,12 +2135,17 @@
         <v>33211</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2193,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2357,67 +2365,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>11439</v>
@@ -2458,7 +2463,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>23624</v>
@@ -2499,7 +2504,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25252</v>
@@ -2540,7 +2545,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25833</v>
@@ -2581,7 +2586,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26071</v>
@@ -2622,7 +2627,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25049</v>
@@ -2661,12 +2666,17 @@
         <v>28630</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2690,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2722,7 +2732,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2886,67 +2896,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>59</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>14380</v>
@@ -2987,7 +2994,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>26363</v>
@@ -3028,7 +3035,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>26705</v>
@@ -3069,7 +3076,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>28407</v>
@@ -3110,7 +3117,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26878</v>
@@ -3151,7 +3158,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25635</v>
@@ -3190,12 +3197,17 @@
         <v>29966</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3221,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3251,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3415,67 +3427,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>63</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>11116</v>
@@ -3516,7 +3525,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>27201</v>
@@ -3557,7 +3566,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25661</v>
@@ -3598,7 +3607,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>24087</v>
@@ -3639,7 +3648,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>23586</v>
@@ -3680,7 +3689,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>30993</v>
@@ -3719,12 +3728,17 @@
         <v>27800</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
